--- a/resources/cashflow_excercise.xlsx
+++ b/resources/cashflow_excercise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niyanshi/OneDrive/personal/learn/financial_statetment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Christopher/Dropbox/BUY SIDE COURSE/Section 10 Accounting Part 3 of 3 the Cash Flow Statement/S10L4 Cash Flow Statement Exercise/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990C4B6A-B203-B940-A7DB-1ECB2192E6C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="5_{89E5725E-4B1E-3046-B552-9D31DF9DBAD9}" xr6:coauthVersionLast="17" xr6:coauthVersionMax="17" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="1180" windowWidth="29040" windowHeight="20380" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10280" yWindow="5180" windowWidth="29040" windowHeight="16380" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balance Sheet (All Data Hid (2)" sheetId="4" state="hidden" r:id="rId1"/>
@@ -24,16 +24,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'How to Complete this Exercise'!$A$1:$F$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Questions!$A$1:$E$26</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="171026" iterate="1" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -42,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="70">
   <si>
     <t xml:space="preserve">  Accounts payable</t>
   </si>
@@ -352,44 +344,17 @@
   <si>
     <t>Depreciation &amp; Amortization</t>
   </si>
-  <si>
-    <t>Income</t>
-  </si>
-  <si>
-    <t>Balance Sheet</t>
-  </si>
-  <si>
-    <t>liability</t>
-  </si>
-  <si>
-    <t>finance</t>
-  </si>
-  <si>
-    <t>current liability</t>
-  </si>
-  <si>
-    <t>long term liability</t>
-  </si>
-  <si>
-    <t>income</t>
-  </si>
-  <si>
-    <t>current asset</t>
-  </si>
-  <si>
-    <t>long term asset</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;#,##0_);_(&quot;$&quot;\(#,##0\);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;#,##0_);_(&quot;$&quot;\(#,##0\);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -479,7 +444,7 @@
       <name val="Segoe UI"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,12 +460,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,12 +544,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="37" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -599,7 +558,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -618,15 +577,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -648,10 +607,10 @@
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -667,10 +626,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -682,7 +641,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -714,7 +673,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -749,7 +708,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -765,7 +724,7 @@
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -776,7 +735,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -788,7 +747,7 @@
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -829,7 +788,7 @@
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -837,24 +796,32 @@
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="3" fillId="3" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="3" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -863,25 +830,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1751,44 +1699,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="139" zoomScaleNormal="192" zoomScalePageLayoutView="192" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="139" zoomScaleNormal="192" zoomScalePageLayoutView="192" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="1.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.83203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" style="4" customWidth="1"/>
-    <col min="12" max="16" width="9.1640625" style="4"/>
-    <col min="17" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="3.69921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="30.45703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="1.84765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.8359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.8359375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.80859375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.44921875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.9453125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.82421875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="4" customWidth="1"/>
+    <col min="12" max="16" width="9.125" style="4"/>
+    <col min="17" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="2"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="2:16" ht="34">
+    <row r="2" spans="2:16" ht="25.5">
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
       <c r="D2" s="10" t="s">
@@ -1862,7 +1810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="17">
+    <row r="6" spans="2:16">
       <c r="B6" s="37" t="s">
         <v>3</v>
       </c>
@@ -1888,7 +1836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="17">
+    <row r="7" spans="2:16">
       <c r="B7" s="37" t="s">
         <v>4</v>
       </c>
@@ -1997,7 +1945,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="2:16" s="29" customFormat="1" ht="34">
+    <row r="12" spans="2:16" s="29" customFormat="1">
       <c r="B12" s="43" t="s">
         <v>8</v>
       </c>
@@ -2028,7 +1976,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="2:16" s="29" customFormat="1" ht="17">
+    <row r="13" spans="2:16" s="29" customFormat="1">
       <c r="B13" s="43" t="s">
         <v>23</v>
       </c>
@@ -2059,7 +2007,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="2:16" s="29" customFormat="1" ht="17">
+    <row r="14" spans="2:16" s="29" customFormat="1">
       <c r="B14" s="43" t="s">
         <v>24</v>
       </c>
@@ -2123,7 +2071,7 @@
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
     </row>
-    <row r="16" spans="2:16" s="26" customFormat="1" ht="17" thickBot="1">
+    <row r="16" spans="2:16" s="26" customFormat="1" ht="15" thickBot="1">
       <c r="B16" s="44" t="s">
         <v>11</v>
       </c>
@@ -2156,7 +2104,7 @@
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
     </row>
-    <row r="17" spans="2:16" ht="19" customHeight="1" thickTop="1">
+    <row r="17" spans="2:16" ht="18.95" customHeight="1" thickTop="1">
       <c r="B17" s="30"/>
       <c r="C17" s="17"/>
       <c r="D17" s="18"/>
@@ -2334,7 +2282,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:16" s="26" customFormat="1" ht="17" thickBot="1">
+    <row r="26" spans="2:16" s="26" customFormat="1" ht="15" thickBot="1">
       <c r="B26" s="47" t="s">
         <v>13</v>
       </c>
@@ -2367,7 +2315,7 @@
       <c r="O26" s="25"/>
       <c r="P26" s="25"/>
     </row>
-    <row r="27" spans="2:16" ht="17" thickTop="1">
+    <row r="27" spans="2:16" ht="15" thickTop="1">
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="18"/>
@@ -2391,7 +2339,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="19"/>
     </row>
-    <row r="29" spans="2:16" s="29" customFormat="1" ht="17">
+    <row r="29" spans="2:16" s="29" customFormat="1">
       <c r="B29" s="37" t="s">
         <v>17</v>
       </c>
@@ -2423,7 +2371,7 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
     </row>
-    <row r="30" spans="2:16" s="29" customFormat="1" ht="17">
+    <row r="30" spans="2:16" s="29" customFormat="1">
       <c r="B30" s="37" t="s">
         <v>26</v>
       </c>
@@ -2487,7 +2435,7 @@
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
     </row>
-    <row r="32" spans="2:16" s="26" customFormat="1" ht="17" thickBot="1">
+    <row r="32" spans="2:16" s="26" customFormat="1" ht="15" thickBot="1">
       <c r="B32" s="51" t="s">
         <v>18</v>
       </c>
@@ -2531,7 +2479,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="33"/>
     </row>
-    <row r="34" spans="2:16" ht="51">
+    <row r="34" spans="2:16" ht="37.5">
       <c r="B34" s="34" t="s">
         <v>21</v>
       </c>
@@ -2581,20 +2529,20 @@
   </sheetPr>
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A14" zoomScale="173" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:D32"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="173" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="35.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14" style="4" customWidth="1"/>
-    <col min="5" max="5" width="2.83203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="4"/>
-    <col min="8" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="3.69921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="35.8828125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.84765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.0546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="2.8359375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.80859375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="4"/>
+    <col min="8" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
@@ -2604,7 +2552,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="2:10" ht="18">
+    <row r="2" spans="2:10" ht="15">
       <c r="B2" s="61" t="s">
         <v>55</v>
       </c>
@@ -2614,11 +2562,11 @@
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="63" t="s">
@@ -2782,7 +2730,7 @@
       <c r="H21" s="4"/>
       <c r="J21" s="69"/>
     </row>
-    <row r="22" spans="1:11" s="29" customFormat="1" ht="18">
+    <row r="22" spans="1:11" s="29" customFormat="1" ht="15.75">
       <c r="A22" s="5"/>
       <c r="B22" s="62" t="s">
         <v>61</v>
@@ -2834,11 +2782,11 @@
     </row>
     <row r="26" spans="1:11" s="29" customFormat="1">
       <c r="A26" s="5"/>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="78">
+      <c r="C26" s="70"/>
+      <c r="D26" s="68">
         <v>10000</v>
       </c>
       <c r="E26" s="20"/>
@@ -2851,11 +2799,11 @@
     </row>
     <row r="27" spans="1:11" s="4" customFormat="1">
       <c r="A27" s="29"/>
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="78">
+      <c r="C27" s="70"/>
+      <c r="D27" s="68">
         <v>-647125</v>
       </c>
       <c r="E27" s="20"/>
@@ -2864,33 +2812,33 @@
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="78">
+      <c r="C28" s="70"/>
+      <c r="D28" s="68">
         <v>300000</v>
       </c>
       <c r="E28" s="20"/>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="77"/>
-      <c r="D29" s="78">
+      <c r="C29" s="70"/>
+      <c r="D29" s="68">
         <v>30750</v>
       </c>
       <c r="E29" s="20"/>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="78">
+      <c r="C30" s="70"/>
+      <c r="D30" s="68">
         <v>0</v>
       </c>
       <c r="E30" s="20"/>
@@ -2898,11 +2846,11 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="29"/>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="78">
+      <c r="C31" s="70"/>
+      <c r="D31" s="68">
         <v>0</v>
       </c>
       <c r="E31" s="2"/>
@@ -2911,11 +2859,11 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="4"/>
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="78">
+      <c r="C32" s="2"/>
+      <c r="D32" s="68">
         <v>157875</v>
       </c>
       <c r="H32" s="4"/>
@@ -2933,7 +2881,7 @@
       <c r="H36" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B23:D31">
+  <sortState ref="B23:D31">
     <sortCondition ref="B23:B31"/>
   </sortState>
   <mergeCells count="1">
@@ -2949,38 +2897,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:J26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="139" zoomScaleNormal="192" zoomScalePageLayoutView="192" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="139" zoomScaleNormal="192" zoomScalePageLayoutView="192" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="1.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="3.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="4" customWidth="1"/>
-    <col min="8" max="10" width="9.1640625" style="4"/>
-    <col min="11" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="3.69921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="30.45703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="1.84765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.16796875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="3.44921875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.3046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.125" style="4"/>
+    <col min="11" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="6"/>
       <c r="F1" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="34">
+    <row r="2" spans="2:10" ht="25.5">
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
       <c r="D2" s="10" t="s">
@@ -3001,81 +2948,39 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="68">
-        <v>157875</v>
-      </c>
+      <c r="B4" s="72"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="72" t="s">
-        <v>70</v>
-      </c>
+      <c r="F4" s="74"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="68">
-        <v>-647125</v>
-      </c>
+      <c r="B5" s="72"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="F5" s="74"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="68">
-        <v>15000</v>
-      </c>
+      <c r="B6" s="72"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="F6" s="74"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="68">
-        <v>-170000</v>
-      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="F7" s="74"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="68">
-        <v>5000</v>
-      </c>
+      <c r="B8" s="72"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="73"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="F8" s="74"/>
     </row>
     <row r="9" spans="2:10" s="26" customFormat="1">
       <c r="B9" s="54" t="s">
@@ -3084,7 +2989,7 @@
       <c r="C9" s="22"/>
       <c r="D9" s="55">
         <f>SUM(D4:D8)</f>
-        <v>-639250</v>
+        <v>0</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="4"/>
@@ -3108,36 +3013,18 @@
       <c r="E11" s="20"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="68">
-        <v>0</v>
-      </c>
+      <c r="B12" s="72"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="F12" s="74"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="68">
-        <v>0</v>
-      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="F13" s="74"/>
     </row>
     <row r="14" spans="2:10" s="26" customFormat="1">
       <c r="B14" s="54" t="s">
@@ -3181,58 +3068,34 @@
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="2:10" s="29" customFormat="1">
-      <c r="B18" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="68">
-        <v>300000</v>
-      </c>
+      <c r="B18" s="72"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="73"/>
       <c r="E18" s="20"/>
-      <c r="F18" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="F18" s="74"/>
+      <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="2:10" s="29" customFormat="1">
-      <c r="B19" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="68">
-        <v>30750</v>
-      </c>
+      <c r="B19" s="72"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="73"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="F19" s="74"/>
+      <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="25"/>
     </row>
     <row r="20" spans="2:10" s="29" customFormat="1">
-      <c r="B20" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="68">
-        <v>10000</v>
-      </c>
+      <c r="B20" s="72"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="73"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="F20" s="74"/>
+      <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -3244,7 +3107,7 @@
       <c r="C21" s="22"/>
       <c r="D21" s="49">
         <f>SUM(D18:D20)</f>
-        <v>340750</v>
+        <v>0</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="4"/>
@@ -3264,14 +3127,14 @@
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
     </row>
-    <row r="23" spans="2:10" s="26" customFormat="1" ht="17" thickBot="1">
+    <row r="23" spans="2:10" s="26" customFormat="1" ht="15" thickBot="1">
       <c r="B23" s="51" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="52">
         <f>D21+D14+D9</f>
-        <v>-298500</v>
+        <v>0</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="4"/>
@@ -3286,7 +3149,7 @@
       <c r="D24" s="33"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:10" ht="102">
+    <row r="25" spans="2:10" ht="64.5">
       <c r="B25" s="34"/>
       <c r="C25" s="35"/>
       <c r="D25" s="36" t="s">
@@ -3303,7 +3166,7 @@
       <c r="E26" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J6:J15">
+  <sortState ref="J6:J15">
     <sortCondition ref="J6"/>
   </sortState>
   <dataConsolidate/>
@@ -3319,37 +3182,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:J26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="139" zoomScaleNormal="192" zoomScalePageLayoutView="192" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="139" zoomScaleNormal="192" zoomScalePageLayoutView="192" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="1.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="3.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="9.1640625" style="4"/>
-    <col min="11" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="3.69921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="30.45703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="1.84765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23.796875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="3.44921875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.3046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.125" style="4"/>
+    <col min="11" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="7"/>
       <c r="F1" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="34">
+    <row r="2" spans="2:10" ht="25.5">
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
       <c r="D2" s="10" t="s">
@@ -3369,7 +3232,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="2:10" ht="17">
+    <row r="4" spans="2:10">
       <c r="B4" s="37" t="s">
         <v>48</v>
       </c>
@@ -3382,7 +3245,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="17">
+    <row r="5" spans="2:10">
       <c r="B5" s="37" t="s">
         <v>69</v>
       </c>
@@ -3395,7 +3258,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="17">
+    <row r="6" spans="2:10">
       <c r="B6" s="37" t="s">
         <v>42</v>
       </c>
@@ -3408,7 +3271,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="17">
+    <row r="7" spans="2:10">
       <c r="B7" s="37" t="s">
         <v>46</v>
       </c>
@@ -3421,7 +3284,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="17">
+    <row r="8" spans="2:10">
       <c r="B8" s="37" t="s">
         <v>47</v>
       </c>
@@ -3531,7 +3394,7 @@
       <c r="D17" s="18"/>
       <c r="E17" s="20"/>
     </row>
-    <row r="18" spans="2:10" s="29" customFormat="1" ht="17">
+    <row r="18" spans="2:10" s="29" customFormat="1">
       <c r="B18" s="37" t="s">
         <v>65</v>
       </c>
@@ -3548,7 +3411,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" s="29" customFormat="1" ht="17">
+    <row r="19" spans="2:10" s="29" customFormat="1">
       <c r="B19" s="37" t="s">
         <v>66</v>
       </c>
@@ -3565,7 +3428,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" s="29" customFormat="1" ht="17">
+    <row r="20" spans="2:10" s="29" customFormat="1">
       <c r="B20" s="37" t="s">
         <v>53</v>
       </c>
@@ -3609,7 +3472,7 @@
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
     </row>
-    <row r="23" spans="2:10" s="26" customFormat="1" ht="17" thickBot="1">
+    <row r="23" spans="2:10" s="26" customFormat="1" ht="15" thickBot="1">
       <c r="B23" s="51" t="s">
         <v>41</v>
       </c>
@@ -3631,10 +3494,10 @@
       <c r="D24" s="33"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:10" ht="102">
+    <row r="25" spans="2:10" ht="61.5">
       <c r="B25" s="34"/>
       <c r="C25" s="35"/>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="75" t="s">
         <v>68</v>
       </c>
       <c r="E25" s="2"/>
